--- a/2018实习生招聘信息.xlsx
+++ b/2018实习生招聘信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>阿里巴巴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,13 @@
   </si>
   <si>
     <t>3月15日——3月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">腾讯
+3月14日 晚上19:00-21:00 公司级宣讲 研究生活动中心                                               3月15日      T族宣讲 计算机学院报告厅
+3月16日        游戏宣讲 研究生活动中心
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,15 +136,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -418,91 +428,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G1:I10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>

--- a/2018实习生招聘信息.xlsx
+++ b/2018实习生招聘信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>阿里巴巴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网易游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内推</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +85,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">腾讯
-3月14日 晚上19:00-21:00 公司级宣讲 研究生活动中心                                               3月15日      T族宣讲 计算机学院报告厅
-3月16日        游戏宣讲 研究生活动中心
-</t>
+    <t>网申</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月8日——4月2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月8日——4月2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月5日——4月6日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣讲会信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司级宣讲 研究生活动中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/3/14 晚上19：00-21：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T族宣讲 计算机学院报告厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏宣讲 研究生活动中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##################################################</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生活动中心B座513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/3/13 15：00-16：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网申/内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1日——4月14日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月1日——4月14日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月9日——5月11日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专场面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +240,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,36 +531,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -466,9 +571,17 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -477,9 +590,19 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -488,9 +611,19 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="8">
+        <v>43174</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -499,63 +632,119 @@
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43201</v>
+      </c>
+      <c r="G5" s="8">
+        <v>43175</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G1:I10"/>
+  <mergeCells count="14">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018实习生招聘信息.xlsx
+++ b/2018实习生招聘信息.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>阿里巴巴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/3/14 晚上19：00-21：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T族宣讲 计算机学院报告厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏宣讲 研究生活动中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +178,22 @@
   </si>
   <si>
     <t>5月底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/3/14 晚上18:30-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/3/15 18:30-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/3/16 18:30-20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T族宣讲 沁苑13栋701室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,16 +246,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,23 +554,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -577,11 +585,11 @@
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -597,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -617,12 +625,12 @@
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8">
-        <v>43174</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7" t="s">
-        <v>28</v>
+      <c r="G4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -635,42 +643,42 @@
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>43201</v>
       </c>
-      <c r="G5" s="8">
-        <v>43175</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7" t="s">
-        <v>29</v>
+      <c r="G5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -680,17 +688,17 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -701,50 +709,50 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018实习生招聘信息.xlsx
+++ b/2018实习生招聘信息.xlsx
@@ -193,7 +193,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T族宣讲 沁苑13栋701室</t>
+    <t>技术分享 沁苑13栋701室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,11 +253,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +542,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,11 +566,11 @@
         <v>10</v>
       </c>
       <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -604,10 +604,10 @@
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
@@ -625,7 +625,7 @@
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="6"/>
@@ -646,7 +646,7 @@
       <c r="D5" s="4">
         <v>43201</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="6"/>
@@ -693,7 +693,7 @@
       <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="6"/>
@@ -739,6 +739,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:H8"/>
@@ -747,12 +753,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
